--- a/biology/Histoire de la zoologie et de la botanique/Suites_à_Buffon/Suites_à_Buffon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Suites_à_Buffon/Suites_à_Buffon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Suites_%C3%A0_Buffon</t>
+          <t>Suites_à_Buffon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Suites à Buffon portent le titre complet de Suites à Buffon formant avec les œuvres de cet auteur un cours complet d'histoire naturelle embrassant les trois règnes de la nature, confié aux plus célèbres naturalistes et habiles écrivains.
 Sous ce titre, deux collections d'ouvrages d'histoire naturelle ont été publiées par l'éditeur parisien Roret, l'une ancienne au format in-18, l'autre nouvelle au format in-8°, avec des auteurs différents.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Suites_%C3%A0_Buffon</t>
+          <t>Suites_à_Buffon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Suites à Buffon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après le rachat de la Libraire Deterville, Roret récupère la propriété du fonds d'édition qui comprenait l'Histoire naturelle de Buffon dans la collection dirigée par René Castel.
 Cette édition avait été primitivement publiée chez Deterville, à l'imprimerie de Crapelet à Paris, en 80 volumes in-18 (1799-1803), illustrée de 778 planches gravées sur cuivre, dont un portrait de Buffon en frontispice du 1er volume, d'après les dessins de Jacques-Eustache de Sève (mort en 1830) et de Jacques Barraband (pour les 10 volumes consacrés aux insectes).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Suites_%C3%A0_Buffon</t>
+          <t>Suites_à_Buffon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Nouvelles Suites à Buffon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ouvrage constitue une très vaste réalisation de l'éditeur parisien Roret en 89 volumes au format in-8° qui paraît de 1834 à 1890. Il paraît sous de nombreuses formes et extraits, parfois les rééditions sont faites sous le titre de Nouvelles Suites à Buffon...
 À partir du 1er janvier 1834, le libraire Roret publie sous le titre Nouvelles Suites à Buffon, une série de traités sur les diverses branches de l'histoire naturelle à laquelle participent de nombreux naturalistes.
@@ -592,7 +608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Suites_%C3%A0_Buffon</t>
+          <t>Suites_à_Buffon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -610,7 +626,9 @@
           <t>Entomologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ouvrage de l'éditeur Nicolas Roret (1797-1860) et de son fils Edme Roret (1834-1894) constitue une réalisation en 35 volumes sur l’entomologie.
 			Planche 1 de l'ouvrage de C.J.-B. Amyot et J. G. Audinet-Serville (1843). Histoire naturelle des insectes. Hémiptères. Paris, Librairie encyclopédique de Roret.
